--- a/teaching/traditional_assets/database/data/thailand/thailand_paper_forest_products.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_paper_forest_products.xlsx
@@ -591,118 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0392</v>
+        <v>0.0722</v>
       </c>
       <c r="G2">
-        <v>0.03779956427015251</v>
+        <v>-0.005844027640671274</v>
       </c>
       <c r="H2">
-        <v>0.03779956427015251</v>
+        <v>-0.005844027640671274</v>
       </c>
       <c r="I2">
-        <v>-0.07625272331154684</v>
+        <v>-0.05478775913129319</v>
       </c>
       <c r="J2">
-        <v>-0.07625272331154684</v>
+        <v>-0.05478775913129319</v>
       </c>
       <c r="K2">
-        <v>-8.09</v>
+        <v>-2.73</v>
       </c>
       <c r="L2">
-        <v>-0.08812636165577342</v>
+        <v>-0.02694965449160908</v>
       </c>
       <c r="M2">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05976145637162586</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.176761433868974</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02969240426867546</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.5846724351050681</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>4.789999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.5031512605042016</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="V2">
-        <v>0.1757689893283113</v>
+        <v>0.07804370447450573</v>
       </c>
       <c r="W2">
-        <v>-0.08831877729257642</v>
+        <v>-0.0303670745272525</v>
       </c>
       <c r="X2">
-        <v>0.1149964387235108</v>
+        <v>0.1001083537064584</v>
       </c>
       <c r="Y2">
-        <v>-0.2033152160160872</v>
+        <v>-0.1304754282337109</v>
       </c>
       <c r="Z2">
-        <v>0.5111358574610245</v>
+        <v>0.4172158154859967</v>
       </c>
       <c r="AA2">
-        <v>-0.03897550111358575</v>
+        <v>-0.02285831960461285</v>
       </c>
       <c r="AB2">
-        <v>0.07152314561186023</v>
+        <v>0.06503686196336898</v>
       </c>
       <c r="AC2">
-        <v>-0.110498646725446</v>
+        <v>-0.08789518156798183</v>
       </c>
       <c r="AD2">
-        <v>180.9</v>
+        <v>203.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>180.9</v>
+        <v>203.6</v>
       </c>
       <c r="AG2">
-        <v>152.9</v>
+        <v>188.6</v>
       </c>
       <c r="AH2">
-        <v>0.5317460317460317</v>
+        <v>0.514401212733704</v>
       </c>
       <c r="AI2">
-        <v>0.6680206794682423</v>
+        <v>0.7474302496328928</v>
       </c>
       <c r="AJ2">
-        <v>0.4897501601537476</v>
+        <v>0.4952731092436975</v>
       </c>
       <c r="AK2">
-        <v>0.6297364085667215</v>
+        <v>0.7327117327117327</v>
       </c>
       <c r="AL2">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="AM2">
-        <v>0.795</v>
+        <v>1.796</v>
       </c>
       <c r="AN2">
-        <v>216.6467065868264</v>
+        <v>43.59743040685225</v>
       </c>
       <c r="AO2">
-        <v>-5.263157894736842</v>
+        <v>-2.817258883248731</v>
       </c>
       <c r="AP2">
-        <v>183.1137724550898</v>
+        <v>40.38543897216274</v>
       </c>
       <c r="AQ2">
-        <v>-8.80503144654088</v>
+        <v>-3.090200445434298</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0392</v>
+        <v>0.0722</v>
       </c>
       <c r="G3">
-        <v>0.03779956427015251</v>
+        <v>-0.005844027640671274</v>
       </c>
       <c r="H3">
-        <v>0.03779956427015251</v>
+        <v>-0.005844027640671274</v>
       </c>
       <c r="I3">
-        <v>-0.07625272331154684</v>
+        <v>-0.05478775913129319</v>
       </c>
       <c r="J3">
-        <v>-0.07625272331154684</v>
+        <v>-0.05478775913129319</v>
       </c>
       <c r="K3">
-        <v>-8.09</v>
+        <v>-2.73</v>
       </c>
       <c r="L3">
-        <v>-0.08812636165577342</v>
+        <v>-0.02694965449160908</v>
       </c>
       <c r="M3">
-        <v>9.52</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05976145637162586</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-1.176761433868974</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.73</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02969240426867546</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.5846724351050681</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4.789999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.5031512605042016</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>0.1757689893283113</v>
+        <v>0.07804370447450573</v>
       </c>
       <c r="W3">
-        <v>-0.08831877729257642</v>
+        <v>-0.0303670745272525</v>
       </c>
       <c r="X3">
-        <v>0.1149964387235108</v>
+        <v>0.1001083537064584</v>
       </c>
       <c r="Y3">
-        <v>-0.2033152160160872</v>
+        <v>-0.1304754282337109</v>
       </c>
       <c r="Z3">
-        <v>0.5111358574610245</v>
+        <v>0.4172158154859967</v>
       </c>
       <c r="AA3">
-        <v>-0.03897550111358575</v>
+        <v>-0.02285831960461285</v>
       </c>
       <c r="AB3">
-        <v>0.07152314561186023</v>
+        <v>0.06503686196336898</v>
       </c>
       <c r="AC3">
-        <v>-0.110498646725446</v>
+        <v>-0.08789518156798183</v>
       </c>
       <c r="AD3">
-        <v>180.9</v>
+        <v>203.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>180.9</v>
+        <v>203.6</v>
       </c>
       <c r="AG3">
-        <v>152.9</v>
+        <v>188.6</v>
       </c>
       <c r="AH3">
-        <v>0.5317460317460317</v>
+        <v>0.514401212733704</v>
       </c>
       <c r="AI3">
-        <v>0.6680206794682423</v>
+        <v>0.7474302496328928</v>
       </c>
       <c r="AJ3">
-        <v>0.4897501601537476</v>
+        <v>0.4952731092436975</v>
       </c>
       <c r="AK3">
-        <v>0.6297364085667215</v>
+        <v>0.7327117327117327</v>
       </c>
       <c r="AL3">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="AM3">
-        <v>0.795</v>
+        <v>1.796</v>
       </c>
       <c r="AN3">
-        <v>216.6467065868264</v>
+        <v>43.59743040685225</v>
       </c>
       <c r="AO3">
-        <v>-5.263157894736842</v>
+        <v>-2.817258883248731</v>
       </c>
       <c r="AP3">
-        <v>183.1137724550898</v>
+        <v>40.38543897216274</v>
       </c>
       <c r="AQ3">
-        <v>-8.80503144654088</v>
+        <v>-3.090200445434298</v>
       </c>
     </row>
   </sheetData>
